--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgi4-Adam23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Adam23</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>3.08882816932455</v>
+        <v>0.212949</v>
       </c>
       <c r="H2">
-        <v>3.08882816932455</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I2">
-        <v>0.2609008394005661</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J2">
-        <v>0.2609008394005661</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.157317599593801</v>
+        <v>0.1790343333333333</v>
       </c>
       <c r="N2">
-        <v>0.157317599593801</v>
+        <v>0.537103</v>
       </c>
       <c r="O2">
-        <v>0.004893467376962752</v>
+        <v>0.00485560647444994</v>
       </c>
       <c r="P2">
-        <v>0.004893467376962752</v>
+        <v>0.00522711558998419</v>
       </c>
       <c r="Q2">
-        <v>0.4859270331558529</v>
+        <v>0.038125182249</v>
       </c>
       <c r="R2">
-        <v>0.4859270331558529</v>
+        <v>0.343126640241</v>
       </c>
       <c r="S2">
-        <v>0.001276709746228868</v>
+        <v>8.218664661458363E-05</v>
       </c>
       <c r="T2">
-        <v>0.001276709746228868</v>
+        <v>0.0001153772599259858</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>3.08882816932455</v>
+        <v>0.212949</v>
       </c>
       <c r="H3">
-        <v>3.08882816932455</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I3">
-        <v>0.2609008394005661</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J3">
-        <v>0.2609008394005661</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>24.1302083663981</v>
+        <v>28.61718033333333</v>
       </c>
       <c r="N3">
-        <v>24.1302083663981</v>
+        <v>85.851541</v>
       </c>
       <c r="O3">
-        <v>0.75058599765805</v>
+        <v>0.7761291564580808</v>
       </c>
       <c r="P3">
-        <v>0.75058599765805</v>
+        <v>0.8355118634326505</v>
       </c>
       <c r="Q3">
-        <v>74.53406733380139</v>
+        <v>6.093999934803001</v>
       </c>
       <c r="R3">
-        <v>74.53406733380139</v>
+        <v>54.84599941322701</v>
       </c>
       <c r="S3">
-        <v>0.1958285168312966</v>
+        <v>0.01313686622767782</v>
       </c>
       <c r="T3">
-        <v>0.1958285168312966</v>
+        <v>0.01844211549926816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>3.08882816932455</v>
+        <v>0.212949</v>
       </c>
       <c r="H4">
-        <v>3.08882816932455</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I4">
-        <v>0.2609008394005661</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J4">
-        <v>0.2609008394005661</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>7.86096660073365</v>
+        <v>0.184753</v>
       </c>
       <c r="N4">
-        <v>7.86096660073365</v>
+        <v>0.5542590000000001</v>
       </c>
       <c r="O4">
-        <v>0.2445205349649873</v>
+        <v>0.005010702954409397</v>
       </c>
       <c r="P4">
-        <v>0.2445205349649873</v>
+        <v>0.005394078714490606</v>
       </c>
       <c r="Q4">
-        <v>24.28117507446555</v>
+        <v>0.03934296659700001</v>
       </c>
       <c r="R4">
-        <v>24.28117507446555</v>
+        <v>0.3540866993730001</v>
       </c>
       <c r="S4">
-        <v>0.06379561282304066</v>
+        <v>8.481183044211728E-05</v>
       </c>
       <c r="T4">
-        <v>0.06379561282304066</v>
+        <v>0.0001190626094237362</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>8.750260491414529</v>
+        <v>0.212949</v>
       </c>
       <c r="H5">
-        <v>8.750260491414529</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I5">
-        <v>0.7390991605994338</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J5">
-        <v>0.7390991605994338</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.157317599593801</v>
+        <v>0.02891466666666667</v>
       </c>
       <c r="N5">
-        <v>0.157317599593801</v>
+        <v>0.086744</v>
       </c>
       <c r="O5">
-        <v>0.004893467376962752</v>
+        <v>0.0007841973104221829</v>
       </c>
       <c r="P5">
-        <v>0.004893467376962752</v>
+        <v>0.0008441973229298452</v>
       </c>
       <c r="Q5">
-        <v>1.376569976329807</v>
+        <v>0.006157349352000002</v>
       </c>
       <c r="R5">
-        <v>1.376569976329807</v>
+        <v>0.055416144168</v>
       </c>
       <c r="S5">
-        <v>0.003616757630733883</v>
+        <v>1.327342888409754E-05</v>
       </c>
       <c r="T5">
-        <v>0.003616757630733883</v>
+        <v>1.863382821361957E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.750260491414529</v>
+        <v>0.212949</v>
       </c>
       <c r="H6">
-        <v>8.750260491414529</v>
+        <v>0.6388470000000001</v>
       </c>
       <c r="I6">
-        <v>0.7390991605994338</v>
+        <v>0.01692613415997515</v>
       </c>
       <c r="J6">
-        <v>0.7390991605994338</v>
+        <v>0.02207283499662091</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.1302083663981</v>
+        <v>7.8617905</v>
       </c>
       <c r="N6">
-        <v>24.1302083663981</v>
+        <v>15.723581</v>
       </c>
       <c r="O6">
-        <v>0.75058599765805</v>
+        <v>0.2132203368026377</v>
       </c>
       <c r="P6">
-        <v>0.75058599765805</v>
+        <v>0.1530227449399449</v>
       </c>
       <c r="Q6">
-        <v>211.1456089180936</v>
+        <v>1.6741604251845</v>
       </c>
       <c r="R6">
-        <v>211.1456089180936</v>
+        <v>10.044962551107</v>
       </c>
       <c r="S6">
-        <v>0.5547574808267534</v>
+        <v>0.003608996026356532</v>
       </c>
       <c r="T6">
-        <v>0.5547574808267534</v>
+        <v>0.00337764579978941</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.123305</v>
+      </c>
+      <c r="H7">
+        <v>9.369915000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2482541803554897</v>
+      </c>
+      <c r="J7">
+        <v>0.3237404069008122</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1790343333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.537103</v>
+      </c>
+      <c r="O7">
+        <v>0.00485560647444994</v>
+      </c>
+      <c r="P7">
+        <v>0.00522711558998419</v>
+      </c>
+      <c r="Q7">
+        <v>0.5591788284716667</v>
+      </c>
+      <c r="R7">
+        <v>5.032609456245</v>
+      </c>
+      <c r="S7">
+        <v>0.001205424605443379</v>
+      </c>
+      <c r="T7">
+        <v>0.001692228528019061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.123305</v>
+      </c>
+      <c r="H8">
+        <v>9.369915000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.2482541803554897</v>
+      </c>
+      <c r="J8">
+        <v>0.3237404069008122</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>28.61718033333333</v>
+      </c>
+      <c r="N8">
+        <v>85.851541</v>
+      </c>
+      <c r="O8">
+        <v>0.7761291564580808</v>
+      </c>
+      <c r="P8">
+        <v>0.8355118634326505</v>
+      </c>
+      <c r="Q8">
+        <v>89.38018242100168</v>
+      </c>
+      <c r="R8">
+        <v>804.421641789015</v>
+      </c>
+      <c r="S8">
+        <v>0.1926773075864985</v>
+      </c>
+      <c r="T8">
+        <v>0.2704889506381422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.123305</v>
+      </c>
+      <c r="H9">
+        <v>9.369915000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.2482541803554897</v>
+      </c>
+      <c r="J9">
+        <v>0.3237404069008122</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.184753</v>
+      </c>
+      <c r="N9">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="P9">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="Q9">
+        <v>0.5770399686650002</v>
+      </c>
+      <c r="R9">
+        <v>5.193359717985001</v>
+      </c>
+      <c r="S9">
+        <v>0.001243927954951735</v>
+      </c>
+      <c r="T9">
+        <v>0.001746281237884199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.123305</v>
+      </c>
+      <c r="H10">
+        <v>9.369915000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.2482541803554897</v>
+      </c>
+      <c r="J10">
+        <v>0.3237404069008122</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.086744</v>
+      </c>
+      <c r="O10">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="P10">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="Q10">
+        <v>0.09030932297333334</v>
+      </c>
+      <c r="R10">
+        <v>0.8127839067600001</v>
+      </c>
+      <c r="S10">
+        <v>0.0001946802605358385</v>
+      </c>
+      <c r="T10">
+        <v>0.0002733007848298845</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>8.750260491414529</v>
-      </c>
-      <c r="H7">
-        <v>8.750260491414529</v>
-      </c>
-      <c r="I7">
-        <v>0.7390991605994338</v>
-      </c>
-      <c r="J7">
-        <v>0.7390991605994338</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>7.86096660073365</v>
-      </c>
-      <c r="N7">
-        <v>7.86096660073365</v>
-      </c>
-      <c r="O7">
-        <v>0.2445205349649873</v>
-      </c>
-      <c r="P7">
-        <v>0.2445205349649873</v>
-      </c>
-      <c r="Q7">
-        <v>68.78550547072884</v>
-      </c>
-      <c r="R7">
-        <v>68.78550547072884</v>
-      </c>
-      <c r="S7">
-        <v>0.1807249221419466</v>
-      </c>
-      <c r="T7">
-        <v>0.1807249221419466</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.123305</v>
+      </c>
+      <c r="H11">
+        <v>9.369915000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.2482541803554897</v>
+      </c>
+      <c r="J11">
+        <v>0.3237404069008122</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>7.8617905</v>
+      </c>
+      <c r="N11">
+        <v>15.723581</v>
+      </c>
+      <c r="O11">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="P11">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="Q11">
+        <v>24.5547695776025</v>
+      </c>
+      <c r="R11">
+        <v>147.328617465615</v>
+      </c>
+      <c r="S11">
+        <v>0.05293283994806027</v>
+      </c>
+      <c r="T11">
+        <v>0.04953964571193695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.15464</v>
+      </c>
+      <c r="H12">
+        <v>0.46392</v>
+      </c>
+      <c r="I12">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J12">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.1790343333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.537103</v>
+      </c>
+      <c r="O12">
+        <v>0.00485560647444994</v>
+      </c>
+      <c r="P12">
+        <v>0.00522711558998419</v>
+      </c>
+      <c r="Q12">
+        <v>0.02768586930666667</v>
+      </c>
+      <c r="R12">
+        <v>0.24917282376</v>
+      </c>
+      <c r="S12">
+        <v>5.968256733996971E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.378503526644613E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.15464</v>
+      </c>
+      <c r="H13">
+        <v>0.46392</v>
+      </c>
+      <c r="I13">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J13">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>28.61718033333333</v>
+      </c>
+      <c r="N13">
+        <v>85.851541</v>
+      </c>
+      <c r="O13">
+        <v>0.7761291564580808</v>
+      </c>
+      <c r="P13">
+        <v>0.8355118634326505</v>
+      </c>
+      <c r="Q13">
+        <v>4.425360766746667</v>
+      </c>
+      <c r="R13">
+        <v>39.82824690072</v>
+      </c>
+      <c r="S13">
+        <v>0.009539772403007749</v>
+      </c>
+      <c r="T13">
+        <v>0.01339235563823651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.15464</v>
+      </c>
+      <c r="H14">
+        <v>0.46392</v>
+      </c>
+      <c r="I14">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J14">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.184753</v>
+      </c>
+      <c r="N14">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="P14">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="Q14">
+        <v>0.02857020392000001</v>
+      </c>
+      <c r="R14">
+        <v>0.25713183528</v>
+      </c>
+      <c r="S14">
+        <v>6.15889319018592E-05</v>
+      </c>
+      <c r="T14">
+        <v>8.64612743956842E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.15464</v>
+      </c>
+      <c r="H15">
+        <v>0.46392</v>
+      </c>
+      <c r="I15">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J15">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.086744</v>
+      </c>
+      <c r="O15">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="P15">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="Q15">
+        <v>0.004471364053333334</v>
+      </c>
+      <c r="R15">
+        <v>0.04024227648</v>
+      </c>
+      <c r="S15">
+        <v>9.638941918660543E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.353157420299757E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.15464</v>
+      </c>
+      <c r="H16">
+        <v>0.46392</v>
+      </c>
+      <c r="I16">
+        <v>0.01229147536029076</v>
+      </c>
+      <c r="J16">
+        <v>0.01602892337544415</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.8617905</v>
+      </c>
+      <c r="N16">
+        <v>15.723581</v>
+      </c>
+      <c r="O16">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="P16">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="Q16">
+        <v>1.21574728292</v>
+      </c>
+      <c r="R16">
+        <v>7.29448369752</v>
+      </c>
+      <c r="S16">
+        <v>0.002620792516122518</v>
+      </c>
+      <c r="T16">
+        <v>0.00245278985334251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.868895</v>
+      </c>
+      <c r="I17">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J17">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1790343333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.537103</v>
+      </c>
+      <c r="O17">
+        <v>0.00485560647444994</v>
+      </c>
+      <c r="P17">
+        <v>0.00522711558998419</v>
+      </c>
+      <c r="Q17">
+        <v>0.05185401235388889</v>
+      </c>
+      <c r="R17">
+        <v>0.466686111185</v>
+      </c>
+      <c r="S17">
+        <v>0.0001117819545371249</v>
+      </c>
+      <c r="T17">
+        <v>0.0001569244658946342</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.868895</v>
+      </c>
+      <c r="I18">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J18">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>28.61718033333333</v>
+      </c>
+      <c r="N18">
+        <v>85.851541</v>
+      </c>
+      <c r="O18">
+        <v>0.7761291564580808</v>
+      </c>
+      <c r="P18">
+        <v>0.8355118634326505</v>
+      </c>
+      <c r="Q18">
+        <v>8.28844163524389</v>
+      </c>
+      <c r="R18">
+        <v>74.59597471719499</v>
+      </c>
+      <c r="S18">
+        <v>0.01786743520889683</v>
+      </c>
+      <c r="T18">
+        <v>0.02508309806062579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.868895</v>
+      </c>
+      <c r="I19">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J19">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.184753</v>
+      </c>
+      <c r="N19">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="P19">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="Q19">
+        <v>0.05351031931166668</v>
+      </c>
+      <c r="R19">
+        <v>0.481592873805</v>
+      </c>
+      <c r="S19">
+        <v>0.0001153524637542377</v>
+      </c>
+      <c r="T19">
+        <v>0.0001619369051044103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.868895</v>
+      </c>
+      <c r="I20">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J20">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.086744</v>
+      </c>
+      <c r="O20">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="P20">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="Q20">
+        <v>0.008374603097777778</v>
+      </c>
+      <c r="R20">
+        <v>0.07537142787999999</v>
+      </c>
+      <c r="S20">
+        <v>1.80531739058772E-05</v>
+      </c>
+      <c r="T20">
+        <v>2.534384628193131E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2896316666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.868895</v>
+      </c>
+      <c r="I21">
+        <v>0.0230212137506032</v>
+      </c>
+      <c r="J21">
+        <v>0.03002123507567371</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>7.8617905</v>
+      </c>
+      <c r="N21">
+        <v>15.723581</v>
+      </c>
+      <c r="O21">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="P21">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="Q21">
+        <v>2.277023485499166</v>
+      </c>
+      <c r="R21">
+        <v>13.662140912995</v>
+      </c>
+      <c r="S21">
+        <v>0.004908590949509128</v>
+      </c>
+      <c r="T21">
+        <v>0.004593931797766944</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H22">
+        <v>17.601103</v>
+      </c>
+      <c r="I22">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J22">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.1790343333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.537103</v>
+      </c>
+      <c r="O22">
+        <v>0.00485560647444994</v>
+      </c>
+      <c r="P22">
+        <v>0.00522711558998419</v>
+      </c>
+      <c r="Q22">
+        <v>1.575600870768167</v>
+      </c>
+      <c r="R22">
+        <v>9.453605224609001</v>
+      </c>
+      <c r="S22">
+        <v>0.003396530700514883</v>
+      </c>
+      <c r="T22">
+        <v>0.003178800300878063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H23">
+        <v>17.601103</v>
+      </c>
+      <c r="I23">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J23">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>28.61718033333333</v>
+      </c>
+      <c r="N23">
+        <v>85.851541</v>
+      </c>
+      <c r="O23">
+        <v>0.7761291564580808</v>
+      </c>
+      <c r="P23">
+        <v>0.8355118634326505</v>
+      </c>
+      <c r="Q23">
+        <v>251.8469693082872</v>
+      </c>
+      <c r="R23">
+        <v>1511.081815849723</v>
+      </c>
+      <c r="S23">
+        <v>0.5429077750319998</v>
+      </c>
+      <c r="T23">
+        <v>0.5081053435963779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H24">
+        <v>17.601103</v>
+      </c>
+      <c r="I24">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J24">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.184753</v>
+      </c>
+      <c r="N24">
+        <v>0.5542590000000001</v>
+      </c>
+      <c r="O24">
+        <v>0.005010702954409397</v>
+      </c>
+      <c r="P24">
+        <v>0.005394078714490606</v>
+      </c>
+      <c r="Q24">
+        <v>1.6259282912795</v>
+      </c>
+      <c r="R24">
+        <v>9.755569747677002</v>
+      </c>
+      <c r="S24">
+        <v>0.003505021773359446</v>
+      </c>
+      <c r="T24">
+        <v>0.003280336687682576</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H25">
+        <v>17.601103</v>
+      </c>
+      <c r="I25">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J25">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.02891466666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.086744</v>
+      </c>
+      <c r="O25">
+        <v>0.0007841973104221829</v>
+      </c>
+      <c r="P25">
+        <v>0.0008441973229298452</v>
+      </c>
+      <c r="Q25">
+        <v>0.2544650131053334</v>
+      </c>
+      <c r="R25">
+        <v>1.526790078632</v>
+      </c>
+      <c r="S25">
+        <v>0.000548551505177709</v>
+      </c>
+      <c r="T25">
+        <v>0.0005133872894014124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.800551500000001</v>
+      </c>
+      <c r="H26">
+        <v>17.601103</v>
+      </c>
+      <c r="I26">
+        <v>0.6995069963736411</v>
+      </c>
+      <c r="J26">
+        <v>0.6081365996514491</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>7.8617905</v>
+      </c>
+      <c r="N26">
+        <v>15.723581</v>
+      </c>
+      <c r="O26">
+        <v>0.2132203368026377</v>
+      </c>
+      <c r="P26">
+        <v>0.1530227449399449</v>
+      </c>
+      <c r="Q26">
+        <v>69.18809217746076</v>
+      </c>
+      <c r="R26">
+        <v>276.752368709843</v>
+      </c>
+      <c r="S26">
+        <v>0.1491491173625892</v>
+      </c>
+      <c r="T26">
+        <v>0.09305873177710905</v>
       </c>
     </row>
   </sheetData>
